--- a/엑셀파일/Travel800_0906.xlsx
+++ b/엑셀파일/Travel800_0906.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/PycharmProjects/dc/엑셀파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4C6F0-0E32-7842-8E06-A080AADBBF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649545F3-9655-4F4D-A7DA-5944F74EAA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="500" windowWidth="28340" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="2384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="2385">
   <si>
     <t>공항</t>
   </si>
@@ -7172,6 +7172,10 @@
   </si>
   <si>
     <t>我们的团队将赢得2比1！</t>
+  </si>
+  <si>
+    <t>化妆品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7557,15 +7561,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
@@ -13890,7 +13894,7 @@
         <v>1694</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1693</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="18">
